--- a/trait_stressor_rankings/trait_stressor_adcap_specific_ck.xlsx
+++ b/trait_stressor_rankings/trait_stressor_adcap_specific_ck.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="28705"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/uqcklein/Documents/OneDrive - The University of Queensland/Species Vuln OK Project/2sept2020/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D9BD17-CA97-4E4F-9EEA-3117FA5BB3FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="540" windowWidth="20280" windowHeight="16500" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="720" yWindow="460" windowWidth="24080" windowHeight="15880" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="sedimentation" sheetId="1" r:id="rId1"/>
@@ -20,18 +14,26 @@
     <definedName name="adcap_traits_1" localSheetId="1">eutrophication!$A$1:$C$27</definedName>
     <definedName name="adcap_traits_1" localSheetId="0">sedimentation!$A$1:$C$27</definedName>
   </definedNames>
-  <calcPr calcId="140000"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="adcap_traits.csv1" type="6" refreshedVersion="0" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="adcap_traits.csv1" type="6" refreshedVersion="0" background="1" saveData="1">
     <textPr fileType="mac" sourceFile="Macintosh HD:Users:ohara:github:spp_vulnerability:int:adcap_traits.csv" comma="1">
       <textFields count="3">
         <textField type="text"/>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="57">
   <si>
     <t>no</t>
   </si>
@@ -166,18 +168,9 @@
     <t>score these as 1 = stressor occurs in this depth zone, 0 = stressor does not occur in this depth zone</t>
   </si>
   <si>
-    <t>score 1 = this trait confers strong adaptive capacity to this stressor, 0 if this trait does not; values in between denote varying levels of adaptive capacity</t>
-  </si>
-  <si>
-    <t>adaptive capacity may be higher for short duration, due to less exposure in the larval form, or for longer duration, due to longer-distance dispersal to areas unaffected by stressor</t>
-  </si>
-  <si>
     <t>references</t>
   </si>
   <si>
-    <t>Wenger et al 2017 (Fish and Fisheries - Dredging paper). Wahab et al. 2019 (Science in the total environment, sponge/larvae paper). Might be a G Ricardo et al. 2016 (Plos one coral larvae)</t>
-  </si>
-  <si>
     <t>Marine Pollution Bulletin Volume 41, Issues 1–6, 2000, Pages 255-263</t>
   </si>
   <si>
@@ -185,13 +178,203 @@
   </si>
   <si>
     <t>Hard to find much evidence for impacts this deep.</t>
+  </si>
+  <si>
+    <r>
+      <t>"Larval development continued normally at suspended sediment concentrations less than 750 mg/ L for quahogs and Pacific oysters C. gigas, whereas greater concentrations consistently had</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> lethal effects at durations of 10 and 12 d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, respectively. Eastern oyster larvae exhibited mortality when exposed to 400 mg/L for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>12 d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Davis and Hidu 1969)." (Wilbur &amp; Cooke, 2001).</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">"Studies on the effects of sediments on the subsequent development in larvae is limited to the work of Gilmour (1999) where, in contrast to the lack of effects on embryogenesis, significant effects were noted from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.5–6.5 days</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> L-1. after spawning at concentrations as low as 50 mg." (Jones et al 2015)(corals). "The eggs and larvae of nonsalmonid estuarine fishes exhibit some of the most sensitive responses to suspended sediment exposures of all the taxa and life history stages for which data are available." "Probable exposure durations vary for this taxonomic grouping because of the diversity of egg forms." (Wilbur &amp; Cooke 2001) "The larvae of striped bass, American shad, yellow perch, and white perch exhibited </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>increased mortality</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> when exposed to suspended sediment dosages less than or equal to 500 mg/L for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>4 d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (3 d for striped bass). Pacific herring, which has an estuarine larval form, experienced </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">inhibited feeding </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">at a suspended sediment dosage of 2,000 mg/L for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1 d</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (Boehlert and Morgan 1985)." (Wilbur &amp; Clarke 2001).</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Carteriospongia foliascens larval stage no more than 24 hrs (Wahab et al 2019). Most sponge larvae are free swimming for hours to a few days (Wahab et al 2019). "When sea rching for appropriate substrata for settlement, swimming larvae demonstrated their ability to avoid settlement onto exposed horizontal substrate thatwere heavily covered with sediment, and were able to selectively and successfully settle onto vertical substrate free of sediment.' </t>
+  </si>
+  <si>
+    <t>Wahab et al (2019) (sponges), Wenger et al (2017)?</t>
+  </si>
+  <si>
+    <t>score high = this trait confers strong adaptive capacity to this stressor, none  if this trait does not; values in between denote varying levels of adaptive capacity</t>
+  </si>
+  <si>
+    <t>none</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CK. This one is tricky. Larvae are very sensistive to sediument, so anything with a larve has little capacity to adapt to sediment. However, if you have a shorter PLD, you are less likely to encounter sediment as a plankton than something with a long PLD. We know that something with a long PLD can get exposed frequently to sediment, giving it little chance to survive. SB: adaptive capacity may be higher for short duration, due to less exposure in the larval form, or for longer duration, due to longer-distance dispersal to areas unaffected by stressor. </t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>See notes in sedimentation. Rational is that all larvae will struggle more than non-larve to adapt given this threat. adaptive capacity may be higher for short duration, due to less exposure in the larval form, or for longer duration, due to longer-distance dispersal to areas unaffected by stressor</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -219,6 +402,12 @@
       <u/>
       <sz val="12"/>
       <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -286,7 +475,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -301,6 +490,14 @@
     <xf numFmtId="49" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -324,8 +521,12 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="adcap_traits_1" connectionId="1" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="adcap_traits_1" connectionId="1" autoFormatId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -649,21 +850,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="22.1640625" customWidth="1"/>
     <col min="2" max="2" width="39.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="117.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="12" customFormat="1">
+    <row r="1" spans="1:7" s="12" customFormat="1">
       <c r="A1" s="13" t="s">
         <v>38</v>
       </c>
@@ -680,10 +882,10 @@
         <v>34</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="9" t="s">
         <v>18</v>
       </c>
@@ -693,15 +895,15 @@
       <c r="C2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="8">
-        <v>1</v>
+      <c r="D2" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F2" s="8"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="9" t="s">
         <v>18</v>
       </c>
@@ -711,13 +913,13 @@
       <c r="C3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="8">
-        <v>1</v>
+      <c r="D3" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="9" t="s">
         <v>18</v>
       </c>
@@ -727,13 +929,13 @@
       <c r="C4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="8">
-        <v>1</v>
+      <c r="D4" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="9" t="s">
         <v>18</v>
       </c>
@@ -743,13 +945,13 @@
       <c r="C5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="8">
-        <v>0</v>
+      <c r="D5" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="9" t="s">
         <v>18</v>
       </c>
@@ -759,13 +961,13 @@
       <c r="C6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="8">
-        <v>1</v>
+      <c r="D6" s="16" t="s">
+        <v>51</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="9" t="s">
         <v>18</v>
       </c>
@@ -775,13 +977,13 @@
       <c r="C7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="8">
-        <v>0</v>
+      <c r="D7" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="9" t="s">
         <v>18</v>
       </c>
@@ -791,13 +993,13 @@
       <c r="C8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="8">
-        <v>0</v>
+      <c r="D8" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7" ht="68">
       <c r="A9" s="9" t="s">
         <v>18</v>
       </c>
@@ -807,17 +1009,20 @@
       <c r="C9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="10">
-        <v>1</v>
+      <c r="D9" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>53</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
@@ -827,13 +1032,16 @@
       <c r="C10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="10">
-        <v>1</v>
-      </c>
-      <c r="E10" s="10"/>
+      <c r="D10" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="F10" s="10"/>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="G10" s="14"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="9" t="s">
         <v>18</v>
       </c>
@@ -843,13 +1051,15 @@
       <c r="C11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="10">
-        <v>1</v>
-      </c>
-      <c r="E11" s="10"/>
+      <c r="D11" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="F11" s="10"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="9" t="s">
         <v>18</v>
       </c>
@@ -859,13 +1069,13 @@
       <c r="C12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="10">
-        <v>1</v>
+      <c r="D12" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" s="9" t="s">
         <v>18</v>
       </c>
@@ -875,13 +1085,13 @@
       <c r="C13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="10">
-        <v>1</v>
+      <c r="D13" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" s="9" t="s">
         <v>18</v>
       </c>
@@ -891,13 +1101,13 @@
       <c r="C14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="10">
-        <v>1</v>
+      <c r="D14" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" s="9" t="s">
         <v>18</v>
       </c>
@@ -907,13 +1117,13 @@
       <c r="C15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="10">
-        <v>0</v>
+      <c r="D15" s="10" t="s">
+        <v>50</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" s="3" t="s">
         <v>3</v>
       </c>
@@ -923,8 +1133,8 @@
       <c r="C16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="1">
-        <v>0</v>
+      <c r="D16" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -939,8 +1149,8 @@
       <c r="C17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="1">
-        <v>0</v>
+      <c r="D17" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1137,14 +1347,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView zoomScale="98" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="53.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.6640625" bestFit="1" customWidth="1"/>
@@ -1168,7 +1378,7 @@
         <v>34</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1181,11 +1391,11 @@
       <c r="C2" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="D2" s="8">
-        <v>1</v>
+      <c r="D2" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F2" s="8"/>
     </row>
@@ -1199,8 +1409,8 @@
       <c r="C3" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="8">
-        <v>1</v>
+      <c r="D3" s="8" t="s">
+        <v>49</v>
       </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
@@ -1215,8 +1425,8 @@
       <c r="C4" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="D4" s="8">
-        <v>0</v>
+      <c r="D4" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
@@ -1231,8 +1441,8 @@
       <c r="C5" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="8">
-        <v>0</v>
+      <c r="D5" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -1247,8 +1457,8 @@
       <c r="C6" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="8">
-        <v>0</v>
+      <c r="D6" s="8" t="s">
+        <v>51</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -1263,8 +1473,8 @@
       <c r="C7" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="8">
-        <v>0</v>
+      <c r="D7" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
@@ -1279,8 +1489,8 @@
       <c r="C8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="D8" s="8">
-        <v>0</v>
+      <c r="D8" s="8" t="s">
+        <v>50</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
@@ -1295,11 +1505,11 @@
       <c r="C9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="10">
-        <v>1</v>
+      <c r="D9" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="F9" s="10"/>
     </row>
@@ -1313,8 +1523,8 @@
       <c r="C10" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D10" s="10">
-        <v>1</v>
+      <c r="D10" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -1329,8 +1539,8 @@
       <c r="C11" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="10">
-        <v>0</v>
+      <c r="D11" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -1345,8 +1555,8 @@
       <c r="C12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="10">
-        <v>0</v>
+      <c r="D12" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -1361,8 +1571,8 @@
       <c r="C13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="10">
-        <v>0</v>
+      <c r="D13" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -1377,8 +1587,8 @@
       <c r="C14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="10">
-        <v>0</v>
+      <c r="D14" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -1393,8 +1603,8 @@
       <c r="C15" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="10">
-        <v>0</v>
+      <c r="D15" s="10" t="s">
+        <v>51</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -1409,8 +1619,8 @@
       <c r="C16" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D16" s="1">
-        <v>0</v>
+      <c r="D16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
@@ -1425,8 +1635,8 @@
       <c r="C17" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D17" s="1">
-        <v>0</v>
+      <c r="D17" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
@@ -1466,7 +1676,7 @@
         <v>39</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1486,7 +1696,7 @@
         <v>39</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1571,7 +1781,7 @@
         <v>8</v>
       </c>
       <c r="D25" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E25" s="4" t="s">
         <v>39</v>
@@ -1613,7 +1823,7 @@
         <v>39</v>
       </c>
       <c r="F27" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
